--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739050.3422560211</v>
+        <v>750698.278145241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553704</v>
+        <v>1195188.384728778</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7761767.858554748</v>
+        <v>8248514.498672919</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>332.088812909938</v>
       </c>
       <c r="F2" t="n">
-        <v>247.6246975704258</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100371</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>306.0162032218596</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>374.6170033797972</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>77.48011721315245</v>
+        <v>126.1875322148141</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>259.9307239468721</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1142,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>323.8805515466217</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1294,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>4.322062388456545</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845505</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1379,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>153.3573077796844</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>96.21571573100167</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>121.9815308269505</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1613,16 +1615,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>153.3573077796844</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>124.3742642346551</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1844,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>211.2730214979432</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>19.53872709080892</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886488</v>
+        <v>219.6035253819533</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>123.9086344760396</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>126.7163958965524</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0606729676881</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>126.7163958965524</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3190,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,10 +3246,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>156.6183086722453</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3317,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3424,16 +3426,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>129.8174841785999</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D40" t="n">
-        <v>124.2290557831222</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>243.9666465156261</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>65.19752671118204</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>216.3411905107152</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>175.0624134762491</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>113.7692670690556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581.043524437616</v>
+        <v>776.2016990565498</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.142794450917</v>
+        <v>753.341373110254</v>
       </c>
       <c r="D2" t="n">
-        <v>730.8501736359169</v>
+        <v>734.0891563356583</v>
       </c>
       <c r="E2" t="n">
-        <v>304.8732337837745</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>417.0520770886785</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1090.853728201993</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1764.655379315307</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>2438.457030428621</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2359.7087100587</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>2002.21929518495</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>1605.827945485297</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X2" t="n">
-        <v>1598.148350693448</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.851484688742</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="L3" t="n">
-        <v>643.169810791496</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="M3" t="n">
-        <v>643.169810791496</v>
+        <v>1041.560872408797</v>
       </c>
       <c r="N3" t="n">
-        <v>643.169810791496</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="O3" t="n">
-        <v>1316.97146190481</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="P3" t="n">
-        <v>1316.97146190481</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1137.62974079602</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>965.6571776749358</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>802.3404048017065</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>636.1321989545601</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>464.2704247291205</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>298.0134550233526</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V4" t="n">
-        <v>2071.554778200025</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>1796.702374372538</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1554.138477818344</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>1327.795709508086</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.07626958691</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.968993605233</v>
+        <v>464.3866495206755</v>
       </c>
       <c r="D5" t="n">
-        <v>1203.716776830638</v>
+        <v>445.1344327460799</v>
       </c>
       <c r="E5" t="n">
-        <v>777.7398369784953</v>
+        <v>423.1978969343415</v>
       </c>
       <c r="F5" t="n">
-        <v>352.6156551678955</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3169967977481</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2075.853571611725</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2604.874578707245</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2364.941498715398</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.941498715398</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1953.221499883145</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.884229838035</v>
+        <v>907.0953397585014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>1318.735195953437</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1318.735195953437</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>1318.735195953437</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.136248852293</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.6031494614565</v>
+        <v>682.0516858538765</v>
       </c>
       <c r="C7" t="n">
-        <v>880.6031494614565</v>
+        <v>510.0791227327925</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1821.387250429946</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1821.387250429946</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V7" t="n">
-        <v>1539.675783037975</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W7" t="n">
-        <v>1539.675783037975</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X7" t="n">
-        <v>1297.11188648378</v>
+        <v>1098.5604228762</v>
       </c>
       <c r="Y7" t="n">
-        <v>1070.769118173522</v>
+        <v>872.2176545659422</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2293.606088501064</v>
+        <v>2044.380587481977</v>
       </c>
       <c r="C8" t="n">
-        <v>2031.049801686042</v>
+        <v>1617.479857495277</v>
       </c>
       <c r="D8" t="n">
-        <v>1607.757180871042</v>
+        <v>1194.187236680277</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.780241018899</v>
+        <v>768.2102968281346</v>
       </c>
       <c r="F8" t="n">
-        <v>756.6560592082994</v>
+        <v>747.1265190579388</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>605.1529926306511</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>1534.778040249928</v>
       </c>
       <c r="M8" t="n">
-        <v>1374.82761136252</v>
+        <v>2539.064141668986</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>3515.315200155687</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.092556179639</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>4035.166985224273</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>4035.166985224273</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>3677.677570350522</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>3281.286220650869</v>
       </c>
       <c r="X8" t="n">
-        <v>2714.7513187973</v>
+        <v>2869.566221818616</v>
       </c>
       <c r="Y8" t="n">
-        <v>2309.41404875219</v>
+        <v>2464.228951773507</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="N9" t="n">
-        <v>1402.051920498411</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>568.9056449083739</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>396.9330817872899</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D10" t="n">
-        <v>396.9330817872899</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E10" t="n">
-        <v>392.5673622029904</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F10" t="n">
-        <v>220.7055879775508</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2064.726598204046</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>2064.726598204046</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>1784.542149704351</v>
+        <v>1987.437775919562</v>
       </c>
       <c r="V10" t="n">
-        <v>1502.830682312379</v>
+        <v>1987.437775919562</v>
       </c>
       <c r="W10" t="n">
-        <v>1227.978278484892</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>985.4143819306975</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y10" t="n">
-        <v>759.0716136204395</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.525280420256</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C11" t="n">
-        <v>1058.624550433556</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D11" t="n">
-        <v>635.3319296185562</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E11" t="n">
-        <v>209.3549897664137</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L11" t="n">
-        <v>54.44861827178296</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2502693850971</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N11" t="n">
-        <v>1257.271276480617</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O11" t="n">
-        <v>1931.072927593931</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.092556179639</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.092556179639</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.092556179639</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>4158.904964532163</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>3762.51361483251</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y11" t="n">
-        <v>1905.373644711786</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>125.0687071170229</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>548.4928445806862</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>548.4928445806862</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>548.4928445806862</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>382.2846387335397</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>210.4228645081002</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1292.251913272626</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1017.399509445139</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>774.8356128909442</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>548.4928445806862</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1485.525280420256</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C14" t="n">
-        <v>1058.624550433556</v>
+        <v>1359.12494809169</v>
       </c>
       <c r="D14" t="n">
-        <v>635.3319296185562</v>
+        <v>935.83232727669</v>
       </c>
       <c r="E14" t="n">
-        <v>209.3549897664137</v>
+        <v>935.83232727669</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>510.7081454660902</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>385.0775755320951</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>487.5966577487487</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1417.221705368025</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>2421.507806787084</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>3397.758865273785</v>
       </c>
       <c r="O14" t="n">
-        <v>2148.789099203062</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="P14" t="n">
-        <v>2148.789099203062</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4242.903515424597</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.092556179639</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4035.166985224273</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3776.812075820685</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>3419.322660946935</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>3022.931311247282</v>
       </c>
       <c r="X14" t="n">
-        <v>2310.710914756895</v>
+        <v>2611.211312415029</v>
       </c>
       <c r="Y14" t="n">
-        <v>1905.373644711786</v>
+        <v>2205.87404236992</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>94.65583996804182</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>1097.679800463439</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>1097.679800463439</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>1097.679800463439</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1097.679800463439</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.5276838214469</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C16" t="n">
-        <v>106.5551207003629</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D16" t="n">
-        <v>54.44861827178296</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E16" t="n">
-        <v>54.44861827178296</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F16" t="n">
-        <v>54.44861827178296</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G16" t="n">
-        <v>54.44861827178296</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44861827178296</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1748.774177950213</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.774177950213</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O18" t="n">
-        <v>1748.774177950213</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5650,16 +5652,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,25 +5697,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.67712750613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="Y19" t="n">
         <v>1375.649804642131</v>
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,46 +5752,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
@@ -5832,16 +5834,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
         <v>1194.79262694784</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
         <v>412.355951603442</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074343</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.787901246856</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>810.671283034784</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>584.328514724526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -5996,28 +5998,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6066,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1067.07923602298</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>895.1066729018962</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>731.7899000286669</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>565.5816941815204</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>393.7199199560808</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>227.462950250313</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.151869599499</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X25" t="n">
-        <v>1483.587973045304</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="Y25" t="n">
-        <v>1257.245204735046</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4157547709034</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6412,22 +6414,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6543,13 +6545,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,34 +6703,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1759.191944545161</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6935,34 +6937,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>4952.919504255303</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>4952.919504255303</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>4952.919504255303</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.5168264363576</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>365.3880545387819</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>913.0255634586812</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.6827951484232</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7190,34 +7192,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3375.975369221655</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>3204.002806100571</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4871.796322517327</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>4591.611874017632</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4309.90040662566</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>4035.048002798173</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>3792.484106243979</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>3566.14133793372</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>973.1823756976778</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="C41" t="n">
-        <v>546.281645710978</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D41" t="n">
-        <v>480.4255581239254</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E41" t="n">
-        <v>54.44861827178296</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>385.0775755320951</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0520770886785</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L41" t="n">
-        <v>417.0520770886785</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M41" t="n">
-        <v>583.4696253673028</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="N41" t="n">
-        <v>1257.271276480617</v>
+        <v>2708.593611087606</v>
       </c>
       <c r="O41" t="n">
-        <v>1931.072927593931</v>
+        <v>3553.738261238419</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>3904.374370802316</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>4139.534279351132</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3881.179369947544</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>3523.689955073793</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>3127.298605374141</v>
       </c>
       <c r="X41" t="n">
-        <v>973.1823756976778</v>
+        <v>2715.578606541888</v>
       </c>
       <c r="Y41" t="n">
-        <v>973.1823756976778</v>
+        <v>2310.241336496778</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>816.6830146357813</v>
       </c>
       <c r="N42" t="n">
-        <v>1402.051920498411</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>591.6469356801283</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>419.6743725590443</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>419.6743725590443</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>253.4661667118978</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>253.4661667118978</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>1525.571973084134</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>1250.719569256647</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>1008.155672702452</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>781.812904392194</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1183.556789194999</v>
+        <v>2369.673452564203</v>
       </c>
       <c r="C44" t="n">
-        <v>756.6560592082994</v>
+        <v>1942.772722577503</v>
       </c>
       <c r="D44" t="n">
-        <v>756.6560592082994</v>
+        <v>1519.480101762504</v>
       </c>
       <c r="E44" t="n">
-        <v>756.6560592082994</v>
+        <v>1093.503161910361</v>
       </c>
       <c r="F44" t="n">
-        <v>756.6560592082994</v>
+        <v>668.3789800997613</v>
       </c>
       <c r="G44" t="n">
-        <v>352.3169967977481</v>
+        <v>264.0399176892099</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>605.1529926306511</v>
       </c>
       <c r="L44" t="n">
-        <v>1764.655379315307</v>
+        <v>1534.778040249928</v>
       </c>
       <c r="M44" t="n">
-        <v>2266.345434084965</v>
+        <v>2539.064141668986</v>
       </c>
       <c r="N44" t="n">
-        <v>2266.345434084965</v>
+        <v>3515.315200155687</v>
       </c>
       <c r="O44" t="n">
-        <v>2266.345434084965</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="P44" t="n">
-        <v>2266.345434084965</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="U44" t="n">
-        <v>2464.07600418556</v>
+        <v>4360.459850306499</v>
       </c>
       <c r="V44" t="n">
-        <v>2106.58658931181</v>
+        <v>4002.970435432749</v>
       </c>
       <c r="W44" t="n">
-        <v>1710.195239612157</v>
+        <v>3606.579085733096</v>
       </c>
       <c r="X44" t="n">
-        <v>1298.475240779904</v>
+        <v>3194.859086900843</v>
       </c>
       <c r="Y44" t="n">
-        <v>1183.556789194999</v>
+        <v>2789.521816855734</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="K45" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="L45" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="M45" t="n">
-        <v>433.5136365409612</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N45" t="n">
-        <v>433.5136365409612</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.315287654275</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P45" t="n">
-        <v>1781.11693876759</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q45" t="n">
-        <v>1781.11693876759</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700612998</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.554778200025</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>205.6738954250035</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8055,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>617.1829579462631</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>380.3086605601455</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>571.7556129878624</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>573.0719431554102</v>
+        <v>467.7777678727251</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>558.9401519306891</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>690.5396891392526</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>571.6442764662843</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>691.5123106689878</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>58.85304373827566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>440.196379322707</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>111.0632094482834</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
-        <v>440.9328573103608</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>185.6255543726317</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9480,7 +9482,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9489,10 +9491,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>56.96224792398087</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607436</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>728.3675687028212</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M27" t="n">
-        <v>153.2864345924293</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9972,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>224.653322316645</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10191,16 +10193,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726301</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10902,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5297965142039</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>391.7532502586123</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>759.9390205422789</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>1111.457990790166</v>
       </c>
       <c r="O42" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>558.9401519306891</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>544.1888939798944</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>131.5488299967595</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574455</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>267.5156322128093</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23315,10 +23317,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>257.6988049940113</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>42.61286918175971</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>267.5156322128093</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>275.9214075517908</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.7887810877128</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.8063191292122</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>259.3556256272424</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.53473220669966</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>18.44967133088755</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>97.362944730603</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20363605725684</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>97.362944730603</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>115.4855711169668</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>40.43535331127322</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25330,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D40" t="n">
-        <v>37.45454936137475</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>171.6832341329887</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>353.8621678956677</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>62.55316220733616</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>119.8272812644564</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25919,7 +25921,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>287.5146302756029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26080,10 +26082,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>732383.7684862654</v>
+        <v>727483.4510967229</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>732383.7684862654</v>
+        <v>727483.4510967229</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732383.7684862654</v>
+        <v>748517.5262255896</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>491278.6137069375</v>
+        <v>656051.7134731907</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491278.6137069375</v>
+        <v>656051.7134731908</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731966.2906764209</v>
+        <v>731966.290676421</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731966.290676421</v>
+        <v>731966.2906764208</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731966.290676421</v>
+        <v>731966.2906764209</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731966.290676421</v>
+        <v>731966.2906764209</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731966.290676421</v>
+        <v>731966.2906764209</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731966.290676421</v>
+        <v>731966.2906764209</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491278.6137069375</v>
+        <v>656051.7134731907</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491278.6137069374</v>
+        <v>656051.7134731907</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
-        <v>334904.5341064189</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="D2" t="n">
-        <v>334904.5341064187</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
-        <v>216916.9051718539</v>
+        <v>289655.3065892872</v>
       </c>
       <c r="F2" t="n">
-        <v>216916.905171854</v>
+        <v>289655.3065892872</v>
       </c>
       <c r="G2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="H2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="I2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="J2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="K2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="L2" t="n">
-        <v>323167.4818040321</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="O2" t="n">
-        <v>216916.9051718539</v>
+        <v>289655.3065892872</v>
       </c>
       <c r="P2" t="n">
-        <v>216916.9051718539</v>
+        <v>289655.3065892873</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165649.9409281001</v>
+        <v>182621.065515899</v>
       </c>
       <c r="C4" t="n">
-        <v>165649.9409281001</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>165649.9409281001</v>
+        <v>109774.3739193694</v>
       </c>
       <c r="E4" t="n">
-        <v>48530.89063209081</v>
+        <v>64858.25346428683</v>
       </c>
       <c r="F4" t="n">
-        <v>48530.89063209081</v>
+        <v>64858.25346428683</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
@@ -26445,19 +26447,19 @@
         <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>48530.89063209081</v>
+        <v>64858.25346428684</v>
       </c>
       <c r="P4" t="n">
-        <v>48530.8906320908</v>
+        <v>64858.25346428684</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465878</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465878</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465878</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465878</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133841.2604719204</v>
+        <v>-101567.5158616456</v>
       </c>
       <c r="C6" t="n">
-        <v>94246.04329176371</v>
+        <v>84837.21755309164</v>
       </c>
       <c r="D6" t="n">
-        <v>94246.04329176353</v>
+        <v>-40617.79477468935</v>
       </c>
       <c r="E6" t="n">
-        <v>127005.064653208</v>
+        <v>158518.0634003416</v>
       </c>
       <c r="F6" t="n">
-        <v>127005.0646532081</v>
+        <v>158518.0634003416</v>
       </c>
       <c r="G6" t="n">
-        <v>9085.671555552879</v>
+        <v>121325.4618355967</v>
       </c>
       <c r="H6" t="n">
-        <v>173036.7923657389</v>
+        <v>173036.7923657387</v>
       </c>
       <c r="I6" t="n">
         <v>173036.7923657389</v>
       </c>
       <c r="J6" t="n">
-        <v>-5040.136123040895</v>
+        <v>27503.12243092235</v>
       </c>
       <c r="K6" t="n">
+        <v>173036.792365739</v>
+      </c>
+      <c r="L6" t="n">
+        <v>37914.75982149708</v>
+      </c>
+      <c r="M6" t="n">
+        <v>173036.7923657388</v>
+      </c>
+      <c r="N6" t="n">
         <v>173036.7923657389</v>
       </c>
-      <c r="L6" t="n">
-        <v>173036.7923657387</v>
-      </c>
-      <c r="M6" t="n">
-        <v>173036.792365739</v>
-      </c>
-      <c r="N6" t="n">
-        <v>173036.792365739</v>
-      </c>
       <c r="O6" t="n">
-        <v>127005.064653208</v>
+        <v>158518.0634003416</v>
       </c>
       <c r="P6" t="n">
-        <v>127005.0646532081</v>
+        <v>158518.0634003417</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610307</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610307</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610307</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>89.62835754368297</v>
       </c>
       <c r="F2" t="n">
-        <v>173.248242422068</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27594,7 +27596,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080143</v>
+        <v>163.7887810877119</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>116.6155194649733</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>46.25593661269659</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,10 +27675,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>84.20348793134454</v>
+        <v>35.4960729296829</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>162.7009987399608</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>76.41512023982415</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>160.2240614002184</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28068,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29022,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>168.0985336147722</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>594.6678712320335</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>357.2118800478175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>534.3646536318383</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>549.900053433188</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>523.1755511358798</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>653.1084262398208</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>534.3646536318382</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>654.1213513129637</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.24192940494233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>404.4317785278977</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>73.67225009225932</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
-        <v>404.8081827057627</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>163.8547131678031</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>19.53098502454905</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561455</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>690.79220689259</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M27" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>188.528647712047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>163.8547131678015</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>168.0985336147721</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>354.177888448381</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>736.8422400299509</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>523.1755511358798</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>506.7576310804626</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>108.4520494844315</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750698.278145241</v>
+        <v>749870.3595207949</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11943472.88418848</v>
+        <v>11943472.88418847</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1195188.384728778</v>
+        <v>1195188.384728777</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>332.088812909938</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>312.9074943906551</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>115.1055716303395</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>192.775261170062</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>374.6170033797972</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>126.1875322148141</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031814</v>
       </c>
     </row>
     <row r="8">
@@ -1144,10 +1144,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>192.0100806287099</v>
       </c>
       <c r="G8" t="n">
-        <v>323.8805515466217</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1198,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1423,16 +1423,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>210.9020107035388</v>
       </c>
       <c r="V11" t="n">
-        <v>96.21571573100167</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.26334559068049</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>121.9815308269505</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>124.3742642346551</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>19.88283942212744</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.2730214979432</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>219.6035253819533</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.7163958965524</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.7163958965524</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>67.80740546295567</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.6953597735377</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>243.9666465156261</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3754,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>75.71199008100153</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>216.3411905107152</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>175.0624134762491</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>169.8819527061194</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>776.2016990565498</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C2" t="n">
-        <v>753.341373110254</v>
+        <v>950.0470931132614</v>
       </c>
       <c r="D2" t="n">
-        <v>734.0891563356583</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4333,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O2" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X2" t="n">
-        <v>1197.346929352786</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y2" t="n">
-        <v>1196.05006334808</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M3" t="n">
-        <v>1041.560872408797</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1592.226407393235</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.226407393235</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.87263914955</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>2177.87263914955</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>1202.502328002918</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>487.2469754669713</v>
+        <v>638.1652587604844</v>
       </c>
       <c r="C5" t="n">
-        <v>464.3866495206755</v>
+        <v>615.3049328141886</v>
       </c>
       <c r="D5" t="n">
-        <v>445.1344327460799</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E5" t="n">
-        <v>423.1978969343415</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,19 +4573,19 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1724.152608635864</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>1312.432609803611</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.0953397585014</v>
+        <v>1058.013623052015</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
         <v>1307.021068682275</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.0516858538765</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C7" t="n">
-        <v>510.0791227327925</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D7" t="n">
-        <v>382.616968980455</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2177.872639149549</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1897.688190649853</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.976723257882</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1341.124319430395</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.5604228762</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>872.2176545659422</v>
+        <v>626.1818057320246</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2044.380587481977</v>
+        <v>2294.433376245654</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.479857495277</v>
+        <v>1867.532646258954</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.187236680277</v>
+        <v>1444.240025443954</v>
       </c>
       <c r="E8" t="n">
-        <v>768.2102968281346</v>
+        <v>1018.263085591812</v>
       </c>
       <c r="F8" t="n">
-        <v>747.1265190579388</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G8" t="n">
         <v>419.9744467886239</v>
@@ -4801,55 +4801,55 @@
         <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K8" t="n">
-        <v>605.1529926306511</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L8" t="n">
-        <v>1534.778040249928</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M8" t="n">
-        <v>2539.064141668986</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N8" t="n">
-        <v>3515.315200155687</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O8" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P8" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q8" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R8" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>4256.092556179639</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T8" t="n">
-        <v>4035.166985224273</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U8" t="n">
-        <v>4035.166985224273</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V8" t="n">
-        <v>3677.677570350522</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W8" t="n">
-        <v>3281.286220650869</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X8" t="n">
-        <v>2869.566221818616</v>
+        <v>3119.619010582293</v>
       </c>
       <c r="Y8" t="n">
-        <v>2464.228951773507</v>
+        <v>2714.281740537183</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J9" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L9" t="n">
-        <v>924.0080050890361</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M9" t="n">
-        <v>1179.699110548142</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N9" t="n">
-        <v>1179.699110548142</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="O9" t="n">
-        <v>1179.699110548142</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="P9" t="n">
-        <v>1895.89682758664</v>
+        <v>1859.393452020673</v>
       </c>
       <c r="Q9" t="n">
         <v>1895.89682758664</v>
@@ -4959,7 +4959,7 @@
         <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
         <v>144.700525230288</v>
@@ -4995,10 +4995,10 @@
         <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.437775919562</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V10" t="n">
-        <v>1987.437775919562</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W10" t="n">
         <v>1829.462953106885</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2525.607981663617</v>
+        <v>2227.739603137652</v>
       </c>
       <c r="C11" t="n">
-        <v>2098.707251676917</v>
+        <v>1800.838873150952</v>
       </c>
       <c r="D11" t="n">
-        <v>1675.414630861917</v>
+        <v>1377.546252335952</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.437691009775</v>
+        <v>951.56931248381</v>
       </c>
       <c r="F11" t="n">
-        <v>824.3135091991753</v>
+        <v>526.4451306732102</v>
       </c>
       <c r="G11" t="n">
-        <v>419.9744467886239</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H11" t="n">
         <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K11" t="n">
         <v>802.7175049816291</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.342552600906</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="M11" t="n">
-        <v>2736.628654019964</v>
+        <v>1807.003606400687</v>
       </c>
       <c r="N11" t="n">
-        <v>3712.879712506665</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O11" t="n">
-        <v>4360.459850306499</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P11" t="n">
-        <v>4360.459850306499</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q11" t="n">
-        <v>4360.459850306499</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R11" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>4256.092556179639</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>4256.092556179639</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>4256.092556179639</v>
+        <v>3822.134651180295</v>
       </c>
       <c r="V11" t="n">
-        <v>4158.904964532163</v>
+        <v>3464.645236306544</v>
       </c>
       <c r="W11" t="n">
-        <v>3762.51361483251</v>
+        <v>3464.645236306544</v>
       </c>
       <c r="X11" t="n">
-        <v>3350.793616000257</v>
+        <v>3052.925237474291</v>
       </c>
       <c r="Y11" t="n">
-        <v>2945.456345955147</v>
+        <v>2647.587967429182</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>125.0687071170229</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K12" t="n">
-        <v>715.5536336853625</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L12" t="n">
-        <v>715.5536336853625</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M12" t="n">
-        <v>715.5536336853625</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N12" t="n">
-        <v>715.5536336853625</v>
+        <v>87.20919700613</v>
       </c>
       <c r="O12" t="n">
-        <v>715.5536336853625</v>
+        <v>976.6904750176017</v>
       </c>
       <c r="P12" t="n">
-        <v>1431.75135072386</v>
+        <v>1692.8881920561</v>
       </c>
       <c r="Q12" t="n">
         <v>1895.89682758664</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>548.4928445806862</v>
+        <v>358.3268758686206</v>
       </c>
       <c r="C13" t="n">
-        <v>548.4928445806862</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D13" t="n">
-        <v>548.4928445806862</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E13" t="n">
-        <v>382.2846387335397</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
-        <v>210.4228645081002</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
         <v>144.700525230288</v>
@@ -5257,73 +5257,73 @@
         <v>1786.02567807839</v>
       </c>
       <c r="C14" t="n">
-        <v>1359.12494809169</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="D14" t="n">
-        <v>935.83232727669</v>
+        <v>1362.733057263391</v>
       </c>
       <c r="E14" t="n">
-        <v>935.83232727669</v>
+        <v>936.7561174112483</v>
       </c>
       <c r="F14" t="n">
-        <v>510.7081454660902</v>
+        <v>511.6319356006485</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0775755320951</v>
+        <v>107.2928731900971</v>
       </c>
       <c r="H14" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I14" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>87.20919700612998</v>
+        <v>370.4132815878177</v>
       </c>
       <c r="K14" t="n">
-        <v>487.5966577487487</v>
+        <v>370.4132815878177</v>
       </c>
       <c r="L14" t="n">
-        <v>1417.221705368025</v>
+        <v>370.4132815878177</v>
       </c>
       <c r="M14" t="n">
-        <v>2421.507806787084</v>
+        <v>1374.699383006876</v>
       </c>
       <c r="N14" t="n">
-        <v>3397.758865273785</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O14" t="n">
-        <v>4242.903515424597</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P14" t="n">
-        <v>4242.903515424597</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q14" t="n">
-        <v>4242.903515424597</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R14" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>4256.092556179639</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4035.166985224273</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>3776.812075820685</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V14" t="n">
-        <v>3419.322660946935</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W14" t="n">
-        <v>3022.931311247282</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X14" t="n">
-        <v>2611.211312415029</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y14" t="n">
-        <v>2205.87404236992</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65583996804182</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J15" t="n">
-        <v>366.3533292476329</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K15" t="n">
-        <v>956.8382558159725</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L15" t="n">
-        <v>1097.679800463439</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M15" t="n">
-        <v>1097.679800463439</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="N15" t="n">
-        <v>1097.679800463439</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="O15" t="n">
-        <v>1097.679800463439</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P15" t="n">
-        <v>1813.877517501937</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q15" t="n">
-        <v>1813.877517501937</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
         <v>1895.89682758664</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C16" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D16" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E16" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F16" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
         <v>144.700525230288</v>
@@ -5463,25 +5463,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.622224419258</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.622224419258</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V16" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W16" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X16" t="n">
-        <v>1586.89905655269</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.556288242432</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N18" t="n">
-        <v>939.1015214887346</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.582799500206</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5709,16 +5709,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.056897064296</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1589.056897064296</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1589.056897064296</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,22 +5761,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5831,19 +5831,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
         <v>1194.79262694784</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>810.671283034784</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.328514724526</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -5998,28 +5998,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3086.290586304201</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.435236455013</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>964.4851292537592</v>
+        <v>610.0460590406528</v>
       </c>
       <c r="L24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1503.646164133598</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.646164133598</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6229,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1503.646164133598</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1503.646164133598</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,22 +6545,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.8188681099</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596601</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747413</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>838.4387648078721</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3896.932966279257</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3896.932966279257</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>4952.919504255303</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>4952.919504255303</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>4952.919504255303</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>739.8561742104578</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>567.8836110893737</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>404.5668382161444</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>238.358632368998</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>238.358632368998</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>238.358632368998</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>1156.364911232781</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>930.0221429225235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7259,13 +7259,13 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
         <v>730.647150085061</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2063.810380420388</v>
+        <v>2121.268919253066</v>
       </c>
       <c r="C41" t="n">
-        <v>2063.810380420388</v>
+        <v>1694.368189266366</v>
       </c>
       <c r="D41" t="n">
-        <v>1640.517759605389</v>
+        <v>1271.075568451366</v>
       </c>
       <c r="E41" t="n">
-        <v>1214.540819753246</v>
+        <v>845.0986285992237</v>
       </c>
       <c r="F41" t="n">
-        <v>789.4166379426465</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="G41" t="n">
-        <v>385.0775755320951</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H41" t="n">
-        <v>87.20919700612998</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>87.20919700612998</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>1732.342552600906</v>
+        <v>2219.844033157688</v>
       </c>
       <c r="N41" t="n">
-        <v>2708.593611087606</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="O41" t="n">
-        <v>3553.738261238419</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P41" t="n">
-        <v>3904.374370802316</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q41" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R41" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>4360.459850306499</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>4139.534279351132</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>3881.179369947544</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V41" t="n">
-        <v>3523.689955073793</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W41" t="n">
-        <v>3127.298605374141</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X41" t="n">
-        <v>2715.578606541888</v>
+        <v>2946.454553589705</v>
       </c>
       <c r="Y41" t="n">
-        <v>2310.241336496778</v>
+        <v>2541.117283544596</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>87.20919700612998</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L42" t="n">
-        <v>87.20919700612998</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="M42" t="n">
-        <v>816.6830146357813</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="N42" t="n">
-        <v>1895.89682758664</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="O42" t="n">
-        <v>1895.89682758664</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P42" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q42" t="n">
         <v>1895.89682758664</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>591.6469356801283</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C43" t="n">
-        <v>419.6743725590443</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D43" t="n">
-        <v>419.6743725590443</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E43" t="n">
-        <v>253.4661667118978</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
-        <v>253.4661667118978</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
         <v>144.700525230288</v>
@@ -7593,28 +7593,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2267.622224419258</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S43" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.282876645158</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U43" t="n">
-        <v>1744.098428145462</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V43" t="n">
-        <v>1525.571973084134</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W43" t="n">
-        <v>1250.719569256647</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X43" t="n">
-        <v>1008.155672702452</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.812904392194</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2369.673452564203</v>
+        <v>2192.842731881123</v>
       </c>
       <c r="C44" t="n">
-        <v>1942.772722577503</v>
+        <v>1765.942001894423</v>
       </c>
       <c r="D44" t="n">
-        <v>1519.480101762504</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E44" t="n">
-        <v>1093.503161910361</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F44" t="n">
-        <v>668.3789800997613</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G44" t="n">
-        <v>264.0399176892099</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H44" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>87.20919700612998</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>605.1529926306511</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>1534.778040249928</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>2539.064141668986</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N44" t="n">
-        <v>3515.315200155687</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="O44" t="n">
-        <v>4360.459850306499</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="P44" t="n">
-        <v>4360.459850306499</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q44" t="n">
-        <v>4360.459850306499</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
-        <v>4360.459850306499</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>4360.459850306499</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T44" t="n">
-        <v>4360.459850306499</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="U44" t="n">
-        <v>4360.459850306499</v>
+        <v>3997.737646776052</v>
       </c>
       <c r="V44" t="n">
-        <v>4002.970435432749</v>
+        <v>3826.139714749669</v>
       </c>
       <c r="W44" t="n">
-        <v>3606.579085733096</v>
+        <v>3429.748365050016</v>
       </c>
       <c r="X44" t="n">
-        <v>3194.859086900843</v>
+        <v>3018.028366217763</v>
       </c>
       <c r="Y44" t="n">
-        <v>2789.521816855734</v>
+        <v>2612.691096172653</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>87.20919700612998</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L45" t="n">
-        <v>87.20919700612998</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="M45" t="n">
-        <v>1143.195734982175</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="N45" t="n">
-        <v>1895.89682758664</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="O45" t="n">
-        <v>1895.89682758664</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P45" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q45" t="n">
         <v>1895.89682758664</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C46" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D46" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E46" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G46" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H46" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
-        <v>87.20919700612998</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
         <v>144.700525230288</v>
@@ -7833,25 +7833,25 @@
         <v>2220.583611106431</v>
       </c>
       <c r="S46" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T46" t="n">
-        <v>2050.448563625566</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U46" t="n">
-        <v>2050.448563625566</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V46" t="n">
-        <v>2050.448563625566</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W46" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X46" t="n">
-        <v>1586.89905655269</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y46" t="n">
-        <v>1360.556288242432</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>181.8548408418185</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,13 +8066,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>380.3086605601455</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,22 +8221,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>181.8548408418185</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8306,13 +8306,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>467.7777678727251</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8455,7 +8455,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>558.9401519306891</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
         <v>977.3272420480539</v>
@@ -8467,7 +8467,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>891.0724241548241</v>
+        <v>691.5123106689887</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8537,10 +8537,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>281.3706244104145</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8552,7 +8552,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>59.61913482025803</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8695,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>467.9770977950392</v>
       </c>
       <c r="O11" t="n">
-        <v>691.5123106689878</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>58.85304373827566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>315.4846913862811</v>
       </c>
       <c r="K14" t="n">
-        <v>440.196379322707</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>164.7792732268216</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>657.7881306933709</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9026,10 +9026,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>666.8880674041833</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9479,13 +9479,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>255.148922768857</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,7 +9494,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>397.6042905607436</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,13 +9716,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>535.2713001311357</v>
       </c>
       <c r="L24" t="n">
-        <v>426.8993572042261</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9740,7 +9740,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>728.3675687028212</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9959,7 +9959,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>419.3774956265374</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9971,7 +9971,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.653322316645</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.685833629606</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P36" t="n">
-        <v>185.6255543726301</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>60.75701611917185</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,7 +10916,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>163.5908808185092</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>391.7532502586123</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11141,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>759.9390205422789</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1111.457990790166</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>558.9401519306891</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,19 +11308,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>732.1065972481656</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>781.6471621574455</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>44.869349606013</v>
       </c>
       <c r="V11" t="n">
-        <v>257.6988049940113</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>42.61286918175971</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>275.9214075517908</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>275.0068553185781</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.8063191292122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.53473220669966</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.362944730603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.362944730603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>102.4454320269175</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>7.662946033389403</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>113.008962604416</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.6832341329887</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>331.8908087629287</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>62.55316220733616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>119.8272812644564</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>184.0325680188936</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656051.7134731907</v>
+        <v>656051.7134731908</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731966.290676421</v>
+        <v>731966.2906764209</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731966.2906764208</v>
+        <v>731966.2906764209</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731966.2906764209</v>
+        <v>731966.290676421</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656051.7134731907</v>
+        <v>656051.7134731908</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334904.5341064188</v>
+        <v>334904.5341064187</v>
       </c>
       <c r="C2" t="n">
         <v>334904.5341064188</v>
@@ -26322,16 +26322,16 @@
         <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
-        <v>289655.3065892872</v>
+        <v>289655.3065892874</v>
       </c>
       <c r="F2" t="n">
-        <v>289655.3065892872</v>
+        <v>289655.3065892873</v>
       </c>
       <c r="G2" t="n">
+        <v>323167.4818040322</v>
+      </c>
+      <c r="H2" t="n">
         <v>323167.4818040323</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323167.4818040321</v>
       </c>
       <c r="I2" t="n">
         <v>323167.4818040323</v>
@@ -26340,7 +26340,7 @@
         <v>323167.4818040322</v>
       </c>
       <c r="K2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="L2" t="n">
         <v>323167.4818040322</v>
@@ -26349,10 +26349,10 @@
         <v>323167.4818040322</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="O2" t="n">
-        <v>289655.3065892872</v>
+        <v>289655.3065892874</v>
       </c>
       <c r="P2" t="n">
         <v>289655.3065892873</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>182621.0655158991</v>
+      </c>
+      <c r="C4" t="n">
         <v>182621.065515899</v>
-      </c>
-      <c r="C4" t="n">
-        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
         <v>109774.3739193694</v>
       </c>
       <c r="E4" t="n">
-        <v>64858.25346428683</v>
+        <v>64858.25346428684</v>
       </c>
       <c r="F4" t="n">
-        <v>64858.25346428683</v>
+        <v>64858.25346428685</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="I4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="I4" t="n">
-        <v>72380.62724986371</v>
-      </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
@@ -26459,7 +26459,7 @@
         <v>64858.25346428684</v>
       </c>
       <c r="P4" t="n">
-        <v>64858.25346428684</v>
+        <v>64858.25346428685</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>66278.98972465878</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101567.5158616456</v>
+        <v>-101567.5158616458</v>
       </c>
       <c r="C6" t="n">
-        <v>84837.21755309164</v>
+        <v>84837.21755309167</v>
       </c>
       <c r="D6" t="n">
-        <v>-40617.79477468935</v>
+        <v>-40617.79477468938</v>
       </c>
       <c r="E6" t="n">
-        <v>158518.0634003416</v>
+        <v>158321.3276285281</v>
       </c>
       <c r="F6" t="n">
-        <v>158518.0634003416</v>
+        <v>158321.3276285281</v>
       </c>
       <c r="G6" t="n">
-        <v>121325.4618355967</v>
+        <v>121274.4311734124</v>
       </c>
       <c r="H6" t="n">
-        <v>173036.7923657387</v>
+        <v>172985.7617035546</v>
       </c>
       <c r="I6" t="n">
-        <v>173036.7923657389</v>
+        <v>172985.7617035546</v>
       </c>
       <c r="J6" t="n">
-        <v>27503.12243092235</v>
+        <v>27452.09176873801</v>
       </c>
       <c r="K6" t="n">
-        <v>173036.792365739</v>
+        <v>172985.7617035545</v>
       </c>
       <c r="L6" t="n">
-        <v>37914.75982149708</v>
+        <v>37863.72915931283</v>
       </c>
       <c r="M6" t="n">
-        <v>173036.7923657388</v>
+        <v>172985.7617035545</v>
       </c>
       <c r="N6" t="n">
-        <v>173036.7923657389</v>
+        <v>172985.7617035545</v>
       </c>
       <c r="O6" t="n">
-        <v>158518.0634003416</v>
+        <v>158321.3276285281</v>
       </c>
       <c r="P6" t="n">
-        <v>158518.0634003417</v>
+        <v>158321.3276285281</v>
       </c>
     </row>
   </sheetData>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>533.8871494610307</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610307</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610307</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.62835754368297</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>88.37640295400348</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>114.189558399806</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>163.7887810877119</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>226.2844334367877</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>46.25593661269659</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4960729296829</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>165.7641609568372</v>
       </c>
     </row>
     <row r="8">
@@ -27864,61 +27864,61 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>228.8628593637839</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>103.323621185591</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>76.41512023982415</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>255.7713603095518</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>357.2118800478175</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>144.2794790315872</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>444.6058781505029</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>523.1755511358798</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
         <v>939.015199615431</v>
@@ -35187,7 +35187,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>853.6814647988001</v>
+        <v>654.1213513129646</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>258.2738438980865</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>36.87209653127953</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>430.6974749605932</v>
       </c>
       <c r="O11" t="n">
-        <v>654.1213513129637</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>38.24192940494233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>286.0647319006946</v>
       </c>
       <c r="K14" t="n">
-        <v>404.4317785278977</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>142.264186512592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>643.7912868918553</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>361.4796159561455</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="L24" t="n">
-        <v>404.3842704899966</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>690.79220689259</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36679,7 +36679,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.528647712047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.3737911969831</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P36" t="n">
-        <v>163.8547131678015</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>38.24192940494229</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>126.1596179190774</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>354.177888448381</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>736.8422400299509</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1090.114962576625</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>523.1755511358798</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,19 +38028,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>694.5312354379342</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>760.3041339439038</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
